--- a/listaIBMS.xlsx
+++ b/listaIBMS.xlsx
@@ -7,10 +7,8 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="EGSUR" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="ALERTAS" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="BUMPS EG SUR" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="BUMPS EE" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="FALATAM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="BUMPS FA LATAM" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -419,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +485,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2020_10_LOS FOGONES TRADICIONALES. ARGENTINA AV FS</t>
+          <t>2020_10_BREAKING MUSIC ESTRENO DOMINGO 25</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -501,12 +499,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>DESDE EL JUEVES 1 DE OCTUBRE 18:00</t>
+          <t>DOMINGO 25 22:00 MÉX/ARG/CHI 20:00 COL</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>SOUTH</t>
+          <t>LATAM + MEXICO</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -514,19 +512,19 @@
         <v>10</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>44091</v>
+        <v>44115</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>44104</v>
+        <v>44127</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>44084</v>
+        <v>44106</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2020_10_LOS FOGONES TRADICIONALES. ARGENTINA GEN FS</t>
+          <t>2020_10_BREAKING MUSIC ESTRENO MANANA</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -540,12 +538,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>LUNES A VIERNES 18:00</t>
+          <t>MANANA 22:00 MÉX/ARG/CHI 20:00 COL</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>SOUTH</t>
+          <t>LATAM + MEXICO</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -553,38 +551,38 @@
         <v>10</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>44105</v>
+        <v>44128</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>44135</v>
+        <v>44128</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>44098</v>
+        <v>44120</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2020_10_LOS FOGONES TRADICIONALES. ARGENTINA REDUX A CONT</t>
+          <t>2020_10_BREAKING MUSIC ESTRENO HOY</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="D4" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A CONTINUACION</t>
+          <t>HOY 22:00 MÉX/ARG/CHI 20:00 COL</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>SOUTH + NORTH</t>
+          <t>LATAM + MEXICO</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -592,13 +590,598 @@
         <v>10</v>
       </c>
       <c r="I4" s="1" t="n">
+        <v>44129</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>44129</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2020_10_BREAKING MUSIC GEN</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NO 22:00 MÉX/ARG/CHI 20:00 COL</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>LATAM + MEXICO</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1" t="n">
         <v>44105</v>
       </c>
-      <c r="J4" s="1" t="n">
+      <c r="J5" s="1" t="n">
         <v>44135</v>
       </c>
-      <c r="K4" s="1" t="n">
+      <c r="K5" s="1" t="n">
         <v>44098</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2020_10_BREAKING MUSIC GEN MANANA</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>MANANA 22:00 MÉX/ARG/CHI 20:00 COL</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>LATAM + MEXICO</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>44105</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>44135</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>44098</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020_10_BREAKING MUSIC GEN HOY</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>HOY 22:00 MÉX/ARG/CHI 20:00 COL</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>LATAM + MEXICO</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>44105</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>44135</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>44098</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2020_4_DOWTON ABBEY REP </t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>MIERCOLES 22:00 MÉX/ARG/CHI 20:00 COL</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>LATAM + MEXICO</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>44109</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>44135</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>43915</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2020_4_DOWTON ABBEY REP  MANANA</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>MANANA 22:00 MÉX/ARG/CHI 20:00 COL</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>LATAM + MEXICO</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>44109</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>44135</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>43915</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020_4_DOWTON ABBEY REP  HOY</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>HOY 22:00 MÉX/ARG/CHI 20:00 COL</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>LATAM + MEXICO</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>44109</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>44135</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>43915</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2020_10_PADRE BROWN GEN </t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>LUNES A VIERNES 15:00 MÉX/ARG/CHI 13:00 COL</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>LATAM + MEXICO</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>44136</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>44135</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>44102</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2020_10_PADRE BROWN GEN  MANANA</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>MANANA 15:00 MÉX/ARG/CHI 13:00 COL</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>LATAM + MEXICO</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>44136</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>44135</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>44102</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2020_10_PADRE BROWN GEN  HOY</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>HOY 15:00 MÉX/ARG/CHI 13:00 COL</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>LATAM + MEXICO</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>44136</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>44135</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>44102</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2020_10_LA LA LAND USA ESTRENO MARTES 6</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>MARTES 6 14:00 MÉX/ARG/CHI 12:00 COL</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>LATAM + MEXICO</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>44096</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>44108</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>44089</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2020_10_LA LA LAND USA ESTRENO MANANA</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>MANANA 14:00 MÉX/ARG/CHI 12:00 COL</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>LATAM + MEXICO</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>44109</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <v>44109</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>44102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2020_10_LA LA LAND USA ESTRENO HOY</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>HOY 14:00 MÉX/ARG/CHI 12:00 COL</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>LATAM + MEXICO</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>44110</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>44110</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>44103</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2020_10_LA LA LAND USA GEN</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>MARTES Y JUEVES 14:00 MÉX/ARG/CHI 12:00 COL</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>LATAM + MEXICO</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>44168</v>
+      </c>
+      <c r="J17" s="1" t="n">
+        <v>44135</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>44161</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2020_10_LA LA LAND USA GEN MANANA</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>MANANA 14:00 MÉX/ARG/CHI 12:00 COL</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>LATAM + MEXICO</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>44168</v>
+      </c>
+      <c r="J18" s="1" t="n">
+        <v>44135</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>44161</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2020_10_LA LA LAND USA GEN HOY</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>HOY 14:00 MÉX/ARG/CHI 12:00 COL</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>LATAM + MEXICO</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>44168</v>
+      </c>
+      <c r="J19" s="1" t="n">
+        <v>44135</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>44161</v>
       </c>
     </row>
   </sheetData>
@@ -607,178 +1190,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>LOS BUMPS SE CARGAN EN EL FEED GOURMET SUR. BUMP DE</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>2020_10_LOS FOGONES TRADICIONALES. ARGENTINA</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>NO CARGADO.</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>LOS BUMPS SE CARGAN EN EL FEED MAS CHIC LATAM. BUMP DE</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2020_10_LA LA LAND USA</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>NO CARGADO.</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Promo Name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Time Code In</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Time Code Out</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Length</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Detail</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Feed</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>MainMI</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>AFP</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>START</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>END</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>DUE DATE</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>A CONT-LOS FOGONES TRADICIONALES. MÉXICO</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>500</v>
-      </c>
-      <c r="D2" t="n">
-        <v>500</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>A CONTINUACION</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>SOUTH + NORTH + US</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>44109</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>44926</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>44102</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -852,7 +1263,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AHORA COMIENZA - LALA LAND</t>
+          <t>ACONTINUACION - BREAKING MUSIC</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -871,7 +1282,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>LATAM</t>
+          <t>LATAM + MEXICO</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -883,19 +1294,19 @@
         <v>10</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>44109</v>
+        <v>44129</v>
       </c>
       <c r="J2" s="1" t="n">
         <v>44926</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>44102</v>
+        <v>44120</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ENSEGUIDA VOLVEMOS - LALA LAND</t>
+          <t>CONTINUAMOS VIENDO - BREAKING MUSIC</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -909,12 +1320,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>STAY TUNED</t>
+          <t>NOW</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>LATAM</t>
+          <t>LATAM + MEXICO</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -926,19 +1337,19 @@
         <v>10</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>44109</v>
+        <v>44129</v>
       </c>
       <c r="J3" s="1" t="n">
         <v>44926</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>44102</v>
+        <v>44120</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>YA VOLVIMOS - LALA LAND</t>
+          <t>ENSEGUIDA REGRESAMOS - BREAKING MUSIC</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -952,12 +1363,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>NOW</t>
+          <t>STAY TUNED</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LATAM</t>
+          <t>LATAM + MEXICO</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -969,13 +1380,13 @@
         <v>10</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>44109</v>
+        <v>44129</v>
       </c>
       <c r="J4" s="1" t="n">
         <v>44926</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>44102</v>
+        <v>44120</v>
       </c>
     </row>
   </sheetData>

--- a/listaIBMS.xlsx
+++ b/listaIBMS.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="FALATAM" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="BUMPS FA LATAM" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="FABRASIL" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -417,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +486,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2020_10_BREAKING MUSIC ESTRENO DOMINGO 25</t>
+          <t xml:space="preserve">2020_10_BREAKING MUSIC 2 GEN </t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -499,7 +500,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>DOMINGO 25 22:00 MÉX/ARG/CHI 20:00 COL</t>
+          <t>NANANA 22:00 MÉX/ARG/CHI 20:00 COL</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -512,19 +513,19 @@
         <v>10</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>44115</v>
+        <v>44105</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>44127</v>
+        <v>44135</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>44106</v>
+        <v>44120</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2020_10_BREAKING MUSIC ESTRENO MANANA</t>
+          <t>2020_10_BREAKING MUSIC 2 GEN  MANANA</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -551,10 +552,10 @@
         <v>10</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>44128</v>
+        <v>44105</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>44128</v>
+        <v>44135</v>
       </c>
       <c r="K3" s="1" t="n">
         <v>44120</v>
@@ -563,7 +564,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2020_10_BREAKING MUSIC ESTRENO HOY</t>
+          <t>2020_10_BREAKING MUSIC 2 GEN  HOY</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -590,598 +591,13 @@
         <v>10</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>44129</v>
+        <v>44105</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>44129</v>
+        <v>44135</v>
       </c>
       <c r="K4" s="1" t="n">
         <v>44120</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2020_10_BREAKING MUSIC GEN</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>NO 22:00 MÉX/ARG/CHI 20:00 COL</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>LATAM + MEXICO</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>44105</v>
-      </c>
-      <c r="J5" s="1" t="n">
-        <v>44135</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <v>44098</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2020_10_BREAKING MUSIC GEN MANANA</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>MANANA 22:00 MÉX/ARG/CHI 20:00 COL</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>LATAM + MEXICO</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>44105</v>
-      </c>
-      <c r="J6" s="1" t="n">
-        <v>44135</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>44098</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2020_10_BREAKING MUSIC GEN HOY</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>HOY 22:00 MÉX/ARG/CHI 20:00 COL</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>LATAM + MEXICO</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>44105</v>
-      </c>
-      <c r="J7" s="1" t="n">
-        <v>44135</v>
-      </c>
-      <c r="K7" s="1" t="n">
-        <v>44098</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2020_4_DOWTON ABBEY REP </t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D8" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>MIERCOLES 22:00 MÉX/ARG/CHI 20:00 COL</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>LATAM + MEXICO</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>44109</v>
-      </c>
-      <c r="J8" s="1" t="n">
-        <v>44135</v>
-      </c>
-      <c r="K8" s="1" t="n">
-        <v>43915</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2020_4_DOWTON ABBEY REP  MANANA</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>MANANA 22:00 MÉX/ARG/CHI 20:00 COL</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>LATAM + MEXICO</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-      <c r="I9" s="1" t="n">
-        <v>44109</v>
-      </c>
-      <c r="J9" s="1" t="n">
-        <v>44135</v>
-      </c>
-      <c r="K9" s="1" t="n">
-        <v>43915</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2020_4_DOWTON ABBEY REP  HOY</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D10" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>HOY 22:00 MÉX/ARG/CHI 20:00 COL</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>LATAM + MEXICO</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>44109</v>
-      </c>
-      <c r="J10" s="1" t="n">
-        <v>44135</v>
-      </c>
-      <c r="K10" s="1" t="n">
-        <v>43915</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2020_10_PADRE BROWN GEN </t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D11" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>LUNES A VIERNES 15:00 MÉX/ARG/CHI 13:00 COL</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>LATAM + MEXICO</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-      <c r="I11" s="1" t="n">
-        <v>44136</v>
-      </c>
-      <c r="J11" s="1" t="n">
-        <v>44135</v>
-      </c>
-      <c r="K11" s="1" t="n">
-        <v>44102</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2020_10_PADRE BROWN GEN  MANANA</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D12" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>MANANA 15:00 MÉX/ARG/CHI 13:00 COL</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>LATAM + MEXICO</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-      <c r="I12" s="1" t="n">
-        <v>44136</v>
-      </c>
-      <c r="J12" s="1" t="n">
-        <v>44135</v>
-      </c>
-      <c r="K12" s="1" t="n">
-        <v>44102</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2020_10_PADRE BROWN GEN  HOY</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D13" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>HOY 15:00 MÉX/ARG/CHI 13:00 COL</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>LATAM + MEXICO</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-      <c r="I13" s="1" t="n">
-        <v>44136</v>
-      </c>
-      <c r="J13" s="1" t="n">
-        <v>44135</v>
-      </c>
-      <c r="K13" s="1" t="n">
-        <v>44102</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2020_10_LA LA LAND USA ESTRENO MARTES 6</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>MARTES 6 14:00 MÉX/ARG/CHI 12:00 COL</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>LATAM + MEXICO</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-      <c r="I14" s="1" t="n">
-        <v>44096</v>
-      </c>
-      <c r="J14" s="1" t="n">
-        <v>44108</v>
-      </c>
-      <c r="K14" s="1" t="n">
-        <v>44089</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2020_10_LA LA LAND USA ESTRENO MANANA</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D15" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>MANANA 14:00 MÉX/ARG/CHI 12:00 COL</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>LATAM + MEXICO</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-      <c r="I15" s="1" t="n">
-        <v>44109</v>
-      </c>
-      <c r="J15" s="1" t="n">
-        <v>44109</v>
-      </c>
-      <c r="K15" s="1" t="n">
-        <v>44102</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2020_10_LA LA LAND USA ESTRENO HOY</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D16" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>HOY 14:00 MÉX/ARG/CHI 12:00 COL</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>LATAM + MEXICO</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-      <c r="I16" s="1" t="n">
-        <v>44110</v>
-      </c>
-      <c r="J16" s="1" t="n">
-        <v>44110</v>
-      </c>
-      <c r="K16" s="1" t="n">
-        <v>44103</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2020_10_LA LA LAND USA GEN</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D17" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>MARTES Y JUEVES 14:00 MÉX/ARG/CHI 12:00 COL</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>LATAM + MEXICO</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-      <c r="I17" s="1" t="n">
-        <v>44168</v>
-      </c>
-      <c r="J17" s="1" t="n">
-        <v>44135</v>
-      </c>
-      <c r="K17" s="1" t="n">
-        <v>44161</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2020_10_LA LA LAND USA GEN MANANA</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D18" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>MANANA 14:00 MÉX/ARG/CHI 12:00 COL</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>LATAM + MEXICO</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-      <c r="I18" s="1" t="n">
-        <v>44168</v>
-      </c>
-      <c r="J18" s="1" t="n">
-        <v>44135</v>
-      </c>
-      <c r="K18" s="1" t="n">
-        <v>44161</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2020_10_LA LA LAND USA GEN HOY</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D19" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>HOY 14:00 MÉX/ARG/CHI 12:00 COL</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>LATAM + MEXICO</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>10</v>
-      </c>
-      <c r="I19" s="1" t="n">
-        <v>44168</v>
-      </c>
-      <c r="J19" s="1" t="n">
-        <v>44135</v>
-      </c>
-      <c r="K19" s="1" t="n">
-        <v>44161</v>
       </c>
     </row>
   </sheetData>
@@ -1195,7 +611,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1260,133 +676,314 @@
         </is>
       </c>
     </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Promo Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Time Code In</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Time Code Out</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Length</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Detail</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Feed</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>MainMI</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>AFP</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>START</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>END</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>DUE DATE</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ACONTINUACION - BREAKING MUSIC</t>
+          <t>2020_10_LA LA LAND USA ESTRENO TERÇA 6</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>700</v>
+        <v>3000</v>
       </c>
       <c r="D2" t="n">
-        <v>700</v>
+        <v>3000</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>NEXT</t>
+          <t>TERÇA 6 14H00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>LATAM + MEXICO</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+          <t>BRASIL</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
         <v>10</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>44129</v>
+        <v>44096</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>44926</v>
+        <v>44108</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>44120</v>
+        <v>44089</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CONTINUAMOS VIENDO - BREAKING MUSIC</t>
+          <t>2020_10_LA LA LAND USA ESTRENO MANANA</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>700</v>
+        <v>3000</v>
       </c>
       <c r="D3" t="n">
-        <v>700</v>
+        <v>3000</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>NOW</t>
+          <t>MANANA 14H00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>LATAM + MEXICO</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+          <t>BRASIL</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
         <v>10</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>44129</v>
+        <v>44109</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>44926</v>
+        <v>44109</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>44120</v>
+        <v>44102</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ENSEGUIDA REGRESAMOS - BREAKING MUSIC</t>
+          <t>2020_10_LA LA LAND USA ESTRENO HOY</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>700</v>
+        <v>3000</v>
       </c>
       <c r="D4" t="n">
-        <v>700</v>
+        <v>3000</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>STAY TUNED</t>
+          <t>HOY 14H00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LATAM + MEXICO</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+          <t>BRASIL</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
         <v>10</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>44129</v>
+        <v>44110</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>44926</v>
+        <v>44110</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>44120</v>
+        <v>44103</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2020_10_LA LA LAND USA GEN</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>MARTES Y JUEVES 14H00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>BRASIL</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>44168</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>44135</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>44161</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2020_10_LA LA LAND USA GEN MANANA</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>MANANA 14H00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>BRASIL</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>44168</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>44135</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>44161</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020_10_LA LA LAND USA GEN HOY</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>HOY 14H00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>BRASIL</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>44168</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>44135</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>44161</v>
       </c>
     </row>
   </sheetData>
